--- a/web/files/excel/import-vat-tu.xlsx
+++ b/web/files/excel/import-vat-tu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\webcuanhom\web\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC26446-7E71-47A0-9F55-7BDA81C41167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE0031-7478-48CA-843C-12F8686BCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>MẪU IMPORT VẬT TƯ</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Ổ khóa BB</t>
+  </si>
+  <si>
+    <t>avbb</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,7 +513,9 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>

--- a/web/files/excel/import-vat-tu.xlsx
+++ b/web/files/excel/import-vat-tu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\webcuanhom\web\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE0031-7478-48CA-843C-12F8686BCB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9E4696-C48E-4F29-9869-310DAE4C279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,55 +25,239 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>MẪU IMPORT VẬT TƯ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+  <si>
+    <t>DANH SÁCH VẬT TƯ SẢN XUẤT CỬA NHÔM</t>
   </si>
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>MÃ VẬT TƯ</t>
-  </si>
-  <si>
-    <t>TÊN VẬT TƯ</t>
-  </si>
-  <si>
-    <t>NHÓM VẬT TƯ</t>
-  </si>
-  <si>
-    <t>LÀ PHỤ KIỆN</t>
-  </si>
-  <si>
-    <t>SỐ LƯỢNG</t>
-  </si>
-  <si>
-    <t>ĐƠN VỊ TÍNH</t>
-  </si>
-  <si>
-    <t>GHI CHÚ</t>
-  </si>
-  <si>
-    <t>ĐƠN GIÁ</t>
-  </si>
-  <si>
-    <t>Ổ khóa AA</t>
-  </si>
-  <si>
-    <t>Cái</t>
-  </si>
-  <si>
-    <t>Ổ khóa BB</t>
-  </si>
-  <si>
-    <t>avbb</t>
+    <t>Mã phụ kiện</t>
+  </si>
+  <si>
+    <t>Tên phụ kiện</t>
+  </si>
+  <si>
+    <t>Nhãn hiệu</t>
+  </si>
+  <si>
+    <t>Model 
+(nếu có)</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tồn kho</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>Đơn vị tính quy đổi</t>
+  </si>
+  <si>
+    <t>Số lượng quy đổi</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>KEG PU88</t>
+  </si>
+  <si>
+    <t>Keo ép góc PU 88</t>
+  </si>
+  <si>
+    <t>Chai</t>
+  </si>
+  <si>
+    <t>SL7-40924</t>
+  </si>
+  <si>
+    <t>Keo Silicon-Sealant-Màu xám nhạt (chai)</t>
+  </si>
+  <si>
+    <t>Đinox</t>
+  </si>
+  <si>
+    <t>Đạn inox cho ke</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Gioang</t>
+  </si>
+  <si>
+    <t>Gioãng (1 cuộn - 5 kg)</t>
+  </si>
+  <si>
+    <t>cuộn</t>
+  </si>
+  <si>
+    <t>Gioang đt5</t>
+  </si>
+  <si>
+    <t>Ni 5*9 dùng thay gioãng dt5 ( chân cánh)</t>
+  </si>
+  <si>
+    <t>Gioang.cđđ E</t>
+  </si>
+  <si>
+    <t>Gioãng cánh đối đầu dùng cho bộ E</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Gioangc.PMI</t>
+  </si>
+  <si>
+    <t>Gioãng cách xếp trượt PMI</t>
+  </si>
+  <si>
+    <t>Gioang.E</t>
+  </si>
+  <si>
+    <t>Gioãng khung bộ E</t>
+  </si>
+  <si>
+    <t>Gioang.PMI</t>
+  </si>
+  <si>
+    <t>Gioãng khung xếp trượt PMI</t>
+  </si>
+  <si>
+    <t>Keg</t>
+  </si>
+  <si>
+    <t>Ke ép góc</t>
+  </si>
+  <si>
+    <t>KEGCK</t>
+  </si>
+  <si>
+    <t>Ke ép góc cánh +khung</t>
+  </si>
+  <si>
+    <t>Ketc</t>
+  </si>
+  <si>
+    <t>Ke tăng cứng</t>
+  </si>
+  <si>
+    <t>Ketc.55</t>
+  </si>
+  <si>
+    <t>Ke tăng cứng H55</t>
+  </si>
+  <si>
+    <t>Ketc63</t>
+  </si>
+  <si>
+    <t>Ke tăng cứng xếp trượt 63</t>
+  </si>
+  <si>
+    <t>NK3ly</t>
+  </si>
+  <si>
+    <t>Nêm kính 3 ly</t>
+  </si>
+  <si>
+    <t>NK5ly</t>
+  </si>
+  <si>
+    <t>Nêm kính 5 ly</t>
+  </si>
+  <si>
+    <t>RCK</t>
+  </si>
+  <si>
+    <t>Ron cánh khung</t>
+  </si>
+  <si>
+    <t>RonC</t>
+  </si>
+  <si>
+    <t>Ron Cánh</t>
+  </si>
+  <si>
+    <t>RonK</t>
+  </si>
+  <si>
+    <t>Ron Khung</t>
+  </si>
+  <si>
+    <t>RonTPE</t>
+  </si>
+  <si>
+    <t>Ron TPE nẹp kính 8mm</t>
+  </si>
+  <si>
+    <t>VINb.2F</t>
+  </si>
+  <si>
+    <t>Vít Inox đầu bằng 2F</t>
+  </si>
+  <si>
+    <t>VINd.2F</t>
+  </si>
+  <si>
+    <t>Vít Inox đầu dù 2F</t>
+  </si>
+  <si>
+    <t>Vit</t>
+  </si>
+  <si>
+    <t>Kít</t>
+  </si>
+  <si>
+    <t>Khhvy4</t>
+  </si>
+  <si>
+    <t>Kính hộp hoa văn ý - vàng đồng ( Y-9-4)</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>Khhvy8</t>
+  </si>
+  <si>
+    <t>Kính hộp hoa văn ý - vàng đồng ( Y-9-8)</t>
+  </si>
+  <si>
+    <t>ktcl10ly</t>
+  </si>
+  <si>
+    <t>Kiếng trắng 10ly cường lực</t>
+  </si>
+  <si>
+    <t>ktcl8ly</t>
+  </si>
+  <si>
+    <t>Kiếng trắng 8ly cường lực</t>
+  </si>
+  <si>
+    <t>thanhtruot</t>
+  </si>
+  <si>
+    <t>Thanh trượt bằng thép,model SBR30</t>
+  </si>
+  <si>
+    <t>mét tới</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,11 +267,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,25 +310,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,108 +626,806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="8">
+        <v>2880000</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6">
+        <v>120</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="8">
+        <v>4320000</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8">
+        <v>450000</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8">
+        <v>200000</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="8">
+        <v>550000</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8">
+        <v>450000</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="8">
+        <v>550000</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="8">
+        <v>450000</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3700000</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="8">
+        <v>200000</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="8">
+        <v>420000</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6">
+        <v>24</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1728000</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1050000</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="8">
+        <v>50000</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="8">
+        <v>50000</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="8">
+        <v>750000</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="8">
+        <v>375000</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="8">
+        <v>375000</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6">
+        <v>200</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="8">
+        <v>17000000</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>50000</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="H23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="8">
+        <v>95000</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="8">
+        <v>95000</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="8">
+        <v>200000</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="8">
+        <v>920000</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="10">
+        <v>3.84</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="8">
+        <v>4608720</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="8">
+        <v>312532</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2503860</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="8">
+        <v>5040000</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/files/excel/import-vat-tu.xlsx
+++ b/web/files/excel/import-vat-tu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\webcuanhom\web\files\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9E4696-C48E-4F29-9869-310DAE4C279C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5EA3BE-9323-473F-A4F8-22FF3053434D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="78">
   <si>
     <t>DANH SÁCH VẬT TƯ SẢN XUẤT CỬA NHÔM</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>mét tới</t>
+  </si>
+  <si>
+    <t>Mã màu</t>
+  </si>
+  <si>
+    <t>Đen</t>
+  </si>
+  <si>
+    <t>VANG</t>
   </si>
 </sst>
 </file>
@@ -316,9 +325,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,10 +348,13 @@
     <xf numFmtId="39" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,806 +635,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5">
         <v>24</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="7">
         <v>2880000</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="K3" s="4"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5">
         <v>120</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="7">
         <v>4320000</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="K4" s="4"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5">
         <v>100</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="K5" s="4"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="8">
+      <c r="J6" s="7">
         <v>450000</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="K6" s="4"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="8">
+      <c r="J7" s="7">
         <v>200000</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="K7" s="4"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5">
         <v>10</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="7">
         <v>550000</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="K8" s="4"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="7">
         <v>450000</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="K9" s="4"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="7">
         <v>550000</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="K10" s="4"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="7">
         <v>450000</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="K11" s="4"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5">
         <v>37</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="7">
         <v>3700000</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="K12" s="4"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="7">
         <v>200000</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="K13" s="4"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="7">
         <v>420000</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="K14" s="4"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5">
         <v>24</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="7">
         <v>1728000</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="K15" s="4"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="7">
         <v>1050000</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="K16" s="4"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5">
         <v>0.5</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="7">
         <v>50000</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="K17" s="4"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5">
         <v>0.5</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="7">
         <v>50000</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="K18" s="4"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5">
         <v>10</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="7">
         <v>750000</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="K19" s="4"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5">
         <v>5</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="7">
         <v>375000</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="K20" s="4"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5">
         <v>5</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="8">
+      <c r="I21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="7">
         <v>375000</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="K21" s="4"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5">
         <v>200</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="7">
         <v>17000000</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="K22" s="4"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="7">
         <v>95000</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="K23" s="4"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5">
         <v>1</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="8">
+      <c r="I24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="7">
         <v>95000</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="K24" s="4"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I25" s="8">
+      <c r="I25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="7">
         <v>200000</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="K25" s="4"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5">
         <v>1</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="8">
+      <c r="J26" s="7">
         <v>920000</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="K26" s="4"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="10">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="9">
         <v>3.84</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="8">
+      <c r="J27" s="7">
         <v>4608720</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="K27" s="4"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5">
         <v>0</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="8">
+      <c r="J28" s="7">
         <v>312532</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="K28" s="4"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5">
         <v>0</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="8">
+      <c r="J29" s="7">
         <v>2503860</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5">
         <v>12</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="8">
+      <c r="J30" s="7">
         <v>5040000</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
